--- a/Excel/extract_potoff_data/mie-potoff-alkene-SI.xlsx
+++ b/Excel/extract_potoff_data/mie-potoff-alkene-SI.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="correct_1C7E" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="23">
   <si>
     <t xml:space="preserve">Ethene</t>
   </si>
@@ -95,8 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -164,12 +167,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,8 +203,8 @@
   </sheetPr>
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29:P38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="1" sqref="Q1:Y13 A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7297,4 +7308,1236 @@
     <oddFooter>&amp;C&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y49"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1:Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>347.12932</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>120.42163</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>362.90039</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>111.6573</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">A1</f>
+        <v>540</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">B1</f>
+        <v>347.12932</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">C1</f>
+        <v>120.42163</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">J2</f>
+        <v>540</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">K2/1000</f>
+        <v>0.34712932</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">L2/1000</f>
+        <v>0.12042163</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">M2/10</f>
+        <v>2.85</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">N2</f>
+        <v>10.39</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>379.46507</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>102.52108</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">A5</f>
+        <v>520</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>411.60651</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">C5</f>
+        <v>84.55741</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">J3</f>
+        <v>520</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">K3/1000</f>
+        <v>0.41160651</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">L3/1000</f>
+        <v>0.08455741</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">M3/10</f>
+        <v>2.172</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">N3</f>
+        <v>14.95</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>395.96739</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>93.36736</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">A9</f>
+        <v>500</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>460.69973</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">C9</f>
+        <v>56.46388</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">J4</f>
+        <v>500</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">K4/1000</f>
+        <v>0.46069973</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">L4/1000</f>
+        <v>0.05646388</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">M4/10</f>
+        <v>1.612</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">N4</f>
+        <v>18.99</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>411.60651</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>84.55741</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">A13</f>
+        <v>480</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>497.37886</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">C13</f>
+        <v>38.48842</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">J5</f>
+        <v>480</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">K5/1000</f>
+        <v>0.49737886</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">L5/1000</f>
+        <v>0.03848842</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">M5/10</f>
+        <v>1.169</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">N5</f>
+        <v>22.11</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>515</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>425.87782</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>76.37108</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">A17</f>
+        <v>460</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">B17</f>
+        <v>527.63</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">C17</f>
+        <v>26.27054</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">J6</f>
+        <v>460</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <f aca="false">K6/1000</f>
+        <v>0.52763</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">L6/1000</f>
+        <v>0.02627054</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">M6/10</f>
+        <v>0.824</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">N6</f>
+        <v>24.61</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>438.66724</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>68.95784</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">A21</f>
+        <v>440</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">B21</f>
+        <v>553.72029</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">C21</f>
+        <v>17.68532</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">J7</f>
+        <v>440</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">K7/1000</f>
+        <v>0.55372029</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">L7/1000</f>
+        <v>0.01768532</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">M7/10</f>
+        <v>0.562</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">N7</f>
+        <v>26.71</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>450.16756</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>62.342</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">A25</f>
+        <v>420</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">B25</f>
+        <v>576.70269</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">C25</f>
+        <v>11.62429</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">J8</f>
+        <v>420</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">K8/1000</f>
+        <v>0.57670269</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">L8/1000</f>
+        <v>0.01162429</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">M8/10</f>
+        <v>0.358</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">N8</f>
+        <v>28.5</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>460.69973</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>56.46388</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">A29</f>
+        <v>400</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">B29</f>
+        <v>597.6252</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">C29</f>
+        <v>7.3794</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">J9</f>
+        <v>400</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">K9/1000</f>
+        <v>0.5976252</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">L9/1000</f>
+        <v>0.0073794</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">M9/10</f>
+        <v>0.23</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">N9</f>
+        <v>30.07</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>470.55732</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>51.22917</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">A33</f>
+        <v>380</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">B33</f>
+        <v>618.66444</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">C33</f>
+        <v>4.46734</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">J10</f>
+        <v>380</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">K10/1000</f>
+        <v>0.61866444</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">L10/1000</f>
+        <v>0.00446734</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">M10/10</f>
+        <v>0.136</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">N10</f>
+        <v>31.59</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>479.9217</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>46.54089</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">A37</f>
+        <v>360</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">B37</f>
+        <v>638.17921</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">C37</f>
+        <v>2.54511</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">J11</f>
+        <v>360</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">K11/1000</f>
+        <v>0.63817921</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">L11/1000</f>
+        <v>0.00254511</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">M11/10</f>
+        <v>0.075</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">N11</f>
+        <v>32.96</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>488.86018</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>42.31616</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">A41</f>
+        <v>340</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">B41</f>
+        <v>657.46164</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">C41</f>
+        <v>1.34271</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">J12</f>
+        <v>340</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">K12/1000</f>
+        <v>0.65746164</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">L12/1000</f>
+        <v>0.00134271</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">M12/10</f>
+        <v>0.038</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">N12</f>
+        <v>34.2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>497.37886</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>38.48842</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">A45</f>
+        <v>320</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">B45</f>
+        <v>674.45488</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">C45</f>
+        <v>0.64379</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">J13</f>
+        <v>320</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">K13/1000</f>
+        <v>0.67445488</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">L13/1000</f>
+        <v>0.00064379</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">M13/10</f>
+        <v>0.017</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">N13</f>
+        <v>35.46</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>505.47886</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>35.00672</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>513.18757</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>31.83076</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>520.55329</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>28.92782</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>527.63</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>26.27054</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>534.4603</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>23.83685</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>541.07499</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>21.60584</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>547.49233</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>19.56078</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>553.72029</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>17.68532</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>559.75965</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15.96614</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>565.60392</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>14.39033</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>571.24856</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>12.94647</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>576.70269</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>11.62429</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>582.00167</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>10.41467</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>587.20672</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>9.30886</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>592.39428</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>8.29964</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>597.6252</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>7.3794</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>602.91999</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>6.54168</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>608.24559</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>5.78077</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>613.52213</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5.09097</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>618.66444</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4.46734</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>623.63221</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3.90531</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>628.46841</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.4007</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>633.28483</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.94857</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>638.17921</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.54511</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>643.14204</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.18652</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>648.05771</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.86862</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>652.83002</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.58874</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>657.46164</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.34271</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>661.9826</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.12824</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>666.35487</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.94229</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>670.5085</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.78144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>674.45488</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.64379</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>678.33053</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.52667</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>682.34536</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.42742</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>686.61838</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.34376</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>690.96442</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.27417</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>